--- a/raw/time_tables/BCA (bca)/2/1.xlsx
+++ b/raw/time_tables/BCA (bca)/2/1.xlsx
@@ -571,10 +571,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -788,22 +788,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,6 +810,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -826,91 +910,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,37 +979,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,19 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1027,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,13 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,19 +1099,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,37 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,11 +1600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,8 +1633,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,17 +1669,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1689,150 +1691,148 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2407,7 +2407,7 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/raw/time_tables/BCA (bca)/2/1.xlsx
+++ b/raw/time_tables/BCA (bca)/2/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="18432" windowHeight="17068"/>
   </bookViews>
   <sheets>
     <sheet name="2 Sem" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="187">
   <si>
     <t>Bachelors of Computer Applications</t>
   </si>
@@ -59,17 +59,17 @@
   </si>
   <si>
     <t xml:space="preserve">
-PBCA1(23B65CA124/23B65CS124)-CL17/AJS,SON,TAJ</t>
+PBCA1(23B65CA124/23B65CS124)-CL17/AJS,SON,SOI,TAJ</t>
   </si>
   <si>
     <t>LBCA1, BCA2(23B61CA122/23B61CS122)-CR501/PTK</t>
   </si>
   <si>
     <t xml:space="preserve">
-PBCA2(23B65CA126/23B65CS126)-CL21/SHP,ALK,SNG</t>
-  </si>
-  <si>
-    <t>LBCA3, BCA4(23B61CA121/23B61CS121)-CR301/AKB</t>
+PBCA2(23B65CA126/23B65CS126)-CL21/SHP,ALK,SNG,RCN</t>
+  </si>
+  <si>
+    <t>LBCA3, BCA4(23B61CA121/23B61CS121)-CR301/RCN</t>
   </si>
   <si>
     <t>LBCA3, BCA4(23B31HS112)-CR501/SKU</t>
@@ -81,7 +81,7 @@
     <t>TUE</t>
   </si>
   <si>
-    <t>TBCA4(23B61CA121/23B61CS121)-TR424/AKB</t>
+    <t>TBCA4(23B61CA121/23B61CS121)-TR424/IMR</t>
   </si>
   <si>
     <t>LBCA3,BCA4(23B31MA112)-CR501/SGL</t>
@@ -90,7 +90,7 @@
     <t>LBCA1, BCA2(23B31HS112)-CS6/SKU</t>
   </si>
   <si>
-    <t>PBCA3(23B65CA126/23B65CS126)-CL22/ALK,NET,SMS</t>
+    <t>PBCA3(23B65CA126/23B65CS126)-CL22/ALK,NET,SMS,RCN</t>
   </si>
   <si>
     <t>TBCA1(23B61CA121/23B61CS121)-TR502/NM</t>
@@ -99,7 +99,7 @@
     <t>LBCA1, BCA2(23B61CA123/23B61CS123)-FF9/ALK</t>
   </si>
   <si>
-    <t>TBCA2(23B61CA122/23B61CS122)-TR424/JC</t>
+    <t>TBCA2(23B61CA122/23B61CS122)-TR424/AKB</t>
   </si>
   <si>
     <t>LBCA1, BCA2(23B61CA121/23B61CS121)-CR325/JC</t>
@@ -123,11 +123,11 @@
     <t>LBCA1, BCA2(23B36HS111)-CS6/BB</t>
   </si>
   <si>
-    <t>TBCA1(23B61CA122/23B61CS122)-TR424/NET</t>
+    <t>TBCA1(23B61CA122/23B61CS122)-TR424/AKB</t>
   </si>
   <si>
     <t xml:space="preserve">
-PBCA2(23B65CA124/23B65CS124)-CL18/JC,PU,NIY</t>
+PBCA2(23B65CA124/23B65CS124)-CL18/JC,PU,NIY,SOI</t>
   </si>
   <si>
     <t>LBCA1,BCA2(23B31MA112)-CS5/SGL</t>
@@ -136,7 +136,7 @@
     <t>PBCA2(23B31HS112)-Computer Centre Room no 423 4th Floor ABB-III/PAC</t>
   </si>
   <si>
-    <t>LBCA3, BCA4(23B61CA121/23B61CS121)-CR425/AKB</t>
+    <t>LBCA3, BCA4(23B61CA121/23B61CS121)-CR425/RCN</t>
   </si>
   <si>
     <t>THUR</t>
@@ -148,7 +148,7 @@
     <t>LBCA1, BCA2(23B61CA122/23B61CS122)-CR325/PTK</t>
   </si>
   <si>
-    <t>TBCA2(23B61CA121/23B61CS121)-TR424/NM</t>
+    <t>TBCA2(23B61CA121/23B61CS121)-TR424/RCN</t>
   </si>
   <si>
     <t>LBCA3,BCA4(23B31MA112)-CR325/SGL</t>
@@ -178,7 +178,7 @@
     <t>BCA (TALK)</t>
   </si>
   <si>
-    <t>PBCA1(23B65CA126/23B65CS126)-CL24/RCA,DEP,RJM</t>
+    <t>PBCA1(23B65CA126/23B65CS126)-CL24/RCA,DEP,RJM,SOI</t>
   </si>
   <si>
     <t>LBCA3, BCA4(23B36HS111)-CS6/BB</t>
@@ -188,7 +188,7 @@
 PBCA3(23B65CA125/23B65CS125)-CL17/AKM,SHV,SLK</t>
   </si>
   <si>
-    <t>PBCA4(23B65CA125/23B65CS125)-CL18/SHJ,PTK,NET</t>
+    <t>PBCA4(23B65CA125/23B65CS125)-CL02/SHJ,PTK,NET</t>
   </si>
   <si>
     <t>PBCA1(23B31HS112)-Computer Centre Room no 423 4th Floor ABB-III/PAC</t>
@@ -203,19 +203,16 @@
     <t>PBCA1(23B65CA125/23B65CS125)-CL17/SHV,NM,AKM</t>
   </si>
   <si>
-    <t>BCA (TALK)-</t>
-  </si>
-  <si>
     <t>LBCA3, BCA4(23B61CA122/23B61CS122)-FF7/NET</t>
   </si>
   <si>
-    <t>PBCA2(23B65CA125/23B65CS125)-CL18/PTK,IMR,SHJ</t>
+    <t>PBCA2(23B65CA125/23B65CS125)-CL03/PTK,IMR,SHJ</t>
   </si>
   <si>
     <t>PBCA3(23B31HS112)-Computer Centre Room no 423 4th Floor ABB-III/PAC</t>
   </si>
   <si>
-    <t>PBCA4(23B65CA126/23B65CS126)-CL23/SMS,AKB,SNG</t>
+    <t>PBCA4(23B65CA126/23B65CS126)-CL23/SMS,SNG,REK,SOI</t>
   </si>
   <si>
     <t xml:space="preserve">Faculty Abbreviation </t>
@@ -392,16 +389,34 @@
     <t xml:space="preserve">Dr. Shikha Kumari </t>
   </si>
   <si>
+    <t>SOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonali </t>
+  </si>
+  <si>
     <t>AJS</t>
   </si>
   <si>
     <t>Dr. Ankita Jaiswal</t>
   </si>
   <si>
+    <t>REK</t>
+  </si>
+  <si>
+    <t>Rekha</t>
+  </si>
+  <si>
     <t>BB</t>
   </si>
   <si>
     <t>Dr. Badri Bajaj</t>
+  </si>
+  <si>
+    <t>RCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Ruchin Gupta </t>
   </si>
   <si>
     <t>PAC</t>
@@ -571,10 +586,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -772,9 +787,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,29 +803,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -818,23 +810,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,7 +826,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,7 +857,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,15 +865,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,8 +907,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,20 +917,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,6 +954,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -973,7 +994,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,97 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,25 +1180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,42 +1193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,21 +1635,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,6 +1658,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1671,17 +1706,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1697,155 +1721,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="39" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1894,6 +1933,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1901,7 +1943,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1937,6 +1979,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1962,7 +2005,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1987,21 +2030,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2021,6 +2064,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2051,7 +2098,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2070,19 +2117,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2090,7 +2143,7 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2104,10 +2157,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2407,28 +2460,28 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.425" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4260869565217" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28333333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.1416666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.425" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.7083333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.5666666666667" style="3" customWidth="1"/>
-    <col min="6" max="7" width="29.5666666666667" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.1416666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.1416666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.28695652173913" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.1391304347826" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.4260869565217" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.7130434782609" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.5739130434783" style="3" customWidth="1"/>
+    <col min="6" max="7" width="29.5739130434783" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.1391304347826" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1391304347826" style="4" customWidth="1"/>
     <col min="10" max="26" width="8" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="14.425" style="4"/>
+    <col min="27" max="16384" width="14.4260869565217" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:26">
+    <row r="1" ht="17.05" spans="1:26">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2439,24 +2492,24 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:26">
       <c r="A2" s="7" t="s">
@@ -2469,24 +2522,24 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:26">
       <c r="A3" s="9"/>
@@ -2514,25 +2567,25 @@
       <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="38.25" spans="1:26">
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -2541,36 +2594,36 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="51" spans="1:26">
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="49.9" spans="1:26">
       <c r="A5" s="14"/>
       <c r="B5" s="12" t="s">
         <v>15</v>
@@ -2579,64 +2632,64 @@
         <v>16</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="66"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="13"/>
       <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="10.5" customHeight="1" spans="1:26">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="67"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="25.5" spans="1:26">
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="24.95" spans="1:26">
       <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
@@ -2647,36 +2700,36 @@
       <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="38.25" spans="1:26">
+      <c r="I7" s="34"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A8" s="14"/>
       <c r="B8" s="19" t="s">
         <v>25</v>
@@ -2684,113 +2737,113 @@
       <c r="C8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="68"/>
+      <c r="F8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="44.25" customHeight="1" spans="1:26">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="26" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="27" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="67"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="38.25" spans="1:26">
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
@@ -2798,116 +2851,116 @@
         <v>36</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="25.5" spans="1:26">
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="24.95" spans="1:26">
       <c r="A12" s="14"/>
-      <c r="B12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="26" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="27" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="38.25" spans="1:26">
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A13" s="18"/>
-      <c r="B13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="8.25" customHeight="1" spans="1:26">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="67"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="38.25" spans="1:26">
-      <c r="A15" s="29" t="s">
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="A15" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -2916,13 +2969,13 @@
       <c r="C15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="31" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="12" t="s">
@@ -2931,1795 +2984,1805 @@
       <c r="H15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="25.5" spans="1:26">
+      <c r="I15" s="28"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A16" s="14"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="66"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="27" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:26">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="67"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="38.25" spans="1:26">
-      <c r="A18" s="29" t="s">
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="A18" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="71" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="31" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="38.25" spans="1:26">
+      <c r="I18" s="117"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="101"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A19" s="14"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="70" t="s">
+      <c r="E19" s="68"/>
+      <c r="F19" s="72" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="101"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:26">
-      <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="66"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:26">
-      <c r="A21" s="35"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="69"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="8.25" customHeight="1" spans="1:26">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="67"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="38.25" spans="1:26">
+      <c r="I22" s="118"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="101"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="38.25" spans="1:26">
+      <c r="E23" s="75"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A24" s="14"/>
       <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="32.25" customHeight="1" spans="1:26">
       <c r="A25" s="14"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:26">
       <c r="A26" s="14"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:26">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:26">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:26">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41" t="s">
+      <c r="C28" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="78" t="s">
+      <c r="H28" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="79" t="s">
+      <c r="I28" s="122"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="116"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45" t="s">
+      <c r="C29" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="D29" s="49"/>
+      <c r="E29" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="80" t="s">
+      <c r="F29" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="G29" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="H29" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="82" t="s">
+      <c r="I29" s="123"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="24.95" spans="1:26">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="117"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="25.5" spans="1:26">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45" t="s">
+      <c r="C30" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="80" t="s">
+      <c r="F30" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="G30" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="H30" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="82" t="s">
+      <c r="I30" s="123"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="117"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45" t="s">
+      <c r="C31" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="80" t="s">
+      <c r="F31" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="G31" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="83" t="s">
+      <c r="H31" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="79" t="s">
+      <c r="I31" s="123"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="117"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45" t="s">
+      <c r="C32" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="80" t="s">
+      <c r="F32" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="G32" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="H32" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="79" t="s">
+      <c r="I32" s="122"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="116"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="80" t="s">
+      <c r="F33" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="81" t="s">
+      <c r="G33" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="H33" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="79" t="s">
+      <c r="I33" s="122"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="116"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45" t="s">
+      <c r="C34" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="D34" s="49"/>
+      <c r="E34" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="80" t="s">
+      <c r="F34" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="81" t="s">
+      <c r="G34" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="83" t="s">
+      <c r="H34" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="79" t="s">
+      <c r="I34" s="123"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="101"/>
+      <c r="Z34" s="101"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="117"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45" t="s">
+      <c r="C35" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="D35" s="49"/>
+      <c r="E35" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="80" t="s">
+      <c r="F35" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="G35" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="85" t="s">
+      <c r="H35" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="82" t="s">
+      <c r="I35" s="122"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
+      <c r="Y35" s="101"/>
+      <c r="Z35" s="101"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A36" s="50"/>
+      <c r="B36" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="116"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A36" s="48"/>
-      <c r="B36" s="45" t="s">
+      <c r="C36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="D36" s="49"/>
+      <c r="E36" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="80" t="s">
+      <c r="F36" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="81" t="s">
+      <c r="G36" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="86" t="s">
+      <c r="H36" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="H36" s="87" t="s">
+      <c r="I36" s="122"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="101"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="116"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="95"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50" t="s">
+      <c r="C37" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="D37" s="49"/>
+      <c r="E37" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="49" t="s">
+      <c r="F37" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="G37" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="G37" s="88" t="s">
+      <c r="H37" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="H37" s="87" t="s">
+      <c r="I37" s="49"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="101"/>
+      <c r="X37" s="101"/>
+      <c r="Y37" s="101"/>
+      <c r="Z37" s="101"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A38" s="51"/>
+      <c r="B38" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="47"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A38" s="49"/>
-      <c r="B38" s="45" t="s">
+      <c r="C38" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="D38" s="49"/>
+      <c r="E38" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="95"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A39" s="49"/>
-      <c r="B39" s="45" t="s">
+      <c r="F38" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="G38" s="47"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="101"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A39" s="51"/>
+      <c r="B39" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="95"/>
-      <c r="X39" s="95"/>
-      <c r="Y39" s="95"/>
-      <c r="Z39" s="95"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A40" s="49"/>
-      <c r="B40" s="51" t="s">
+      <c r="C39" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="D39" s="49"/>
+      <c r="E39" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="95"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A41" s="49"/>
-      <c r="B41" s="51" t="s">
+      <c r="F39" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="101"/>
+      <c r="X39" s="101"/>
+      <c r="Y39" s="101"/>
+      <c r="Z39" s="101"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A40" s="51"/>
+      <c r="B40" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="95"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A42" s="49"/>
-      <c r="B42" s="51" t="s">
+      <c r="C40" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="D40" s="49"/>
+      <c r="E40" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="95"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A43" s="49"/>
-      <c r="B43" s="51" t="s">
+      <c r="F40" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="G40" s="95"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="101"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A41" s="51"/>
+      <c r="B41" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A44" s="49"/>
-      <c r="B44" s="51" t="s">
+      <c r="C41" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="D41" s="49"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="101"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="101"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="101"/>
+      <c r="Z41" s="101"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A42" s="51"/>
+      <c r="B42" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A45" s="49"/>
-      <c r="B45" s="51" t="s">
+      <c r="C42" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="D42" s="49"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="101"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="101"/>
+      <c r="Z42" s="101"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A43" s="51"/>
+      <c r="B43" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
-      <c r="W45" s="95"/>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="95"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="12.75" spans="1:26">
-      <c r="A46" s="49"/>
-      <c r="B46" s="51" t="s">
+      <c r="C43" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="D43" s="49"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101"/>
+      <c r="R43" s="101"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="101"/>
+      <c r="U43" s="101"/>
+      <c r="V43" s="101"/>
+      <c r="W43" s="101"/>
+      <c r="X43" s="101"/>
+      <c r="Y43" s="101"/>
+      <c r="Z43" s="101"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A44" s="51"/>
+      <c r="B44" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="95"/>
-      <c r="U46" s="95"/>
-      <c r="V46" s="95"/>
-      <c r="W46" s="95"/>
-      <c r="X46" s="95"/>
-      <c r="Y46" s="95"/>
-      <c r="Z46" s="95"/>
+      <c r="C44" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="101"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="101"/>
+      <c r="T44" s="101"/>
+      <c r="U44" s="101"/>
+      <c r="V44" s="101"/>
+      <c r="W44" s="101"/>
+      <c r="X44" s="101"/>
+      <c r="Y44" s="101"/>
+      <c r="Z44" s="101"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A45" s="51"/>
+      <c r="B45" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
+      <c r="U45" s="101"/>
+      <c r="V45" s="101"/>
+      <c r="W45" s="101"/>
+      <c r="X45" s="101"/>
+      <c r="Y45" s="101"/>
+      <c r="Z45" s="101"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="A46" s="51"/>
+      <c r="B46" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="101"/>
+      <c r="O46" s="101"/>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="101"/>
+      <c r="S46" s="101"/>
+      <c r="T46" s="101"/>
+      <c r="U46" s="101"/>
+      <c r="V46" s="101"/>
+      <c r="W46" s="101"/>
+      <c r="X46" s="101"/>
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="101"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="95"/>
-      <c r="U47" s="95"/>
-      <c r="V47" s="95"/>
-      <c r="W47" s="95"/>
-      <c r="X47" s="95"/>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="95"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
+      <c r="O47" s="101"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="101"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="101"/>
+      <c r="U47" s="101"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="101"/>
+      <c r="X47" s="101"/>
+      <c r="Y47" s="101"/>
+      <c r="Z47" s="101"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A48" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58"/>
-      <c r="F48" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="H48" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="I48" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="57"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
+      <c r="A48" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="F48" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="59"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="59"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A49" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="58"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="100" t="s">
+      <c r="A49" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="60"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="57"/>
+      <c r="I49" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="59"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="59"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="58"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="I50" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="57"/>
-      <c r="Z50" s="57"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="59"/>
+      <c r="V50" s="59"/>
+      <c r="W50" s="59"/>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59"/>
+      <c r="Z50" s="59"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="58"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="103" t="s">
+      <c r="C51" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="I51" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="57"/>
+      <c r="D51" s="60"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="59"/>
     </row>
     <row r="52" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A52" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="58"/>
-      <c r="F52" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="H52" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="I52" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
+      <c r="A52" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="F52" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="H52" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I52" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="59"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A53" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="58"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="H53" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="57"/>
+      <c r="A53" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I53" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="59"/>
     </row>
     <row r="54" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A54" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="58"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="101" t="s">
+      <c r="A54" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="60"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="H54" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I54" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="H54" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="57"/>
-      <c r="T54" s="57"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="57"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A55" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="58"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="103" t="s">
+      <c r="A55" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="H55" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="57"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="57"/>
+      <c r="C55" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I55" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
     </row>
     <row r="56" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A56" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="58"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="57"/>
-      <c r="T56" s="57"/>
-      <c r="U56" s="57"/>
-      <c r="V56" s="57"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="57"/>
+      <c r="A56" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
     </row>
     <row r="57" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A57" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="58"/>
-      <c r="F57" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="57"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="57"/>
-      <c r="Y57" s="57"/>
-      <c r="Z57" s="57"/>
+      <c r="A57" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="F57" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A58" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="58"/>
-      <c r="G58" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="H58" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
-      <c r="Y58" s="57"/>
-      <c r="Z58" s="57"/>
+      <c r="A58" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="G58" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H58" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="I58" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="59"/>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A59" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="58"/>
-      <c r="G59" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="H59" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="57"/>
-      <c r="Z59" s="57"/>
+      <c r="A59" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="G59" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="H59" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A60" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="58"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
+      <c r="A60" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="60"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59"/>
+      <c r="T60" s="59"/>
+      <c r="U60" s="59"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
+      <c r="X60" s="59"/>
+      <c r="Y60" s="59"/>
+      <c r="Z60" s="59"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A61" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="58"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
-      <c r="Y61" s="57"/>
-      <c r="Z61" s="57"/>
+      <c r="A61" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="60"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
     </row>
     <row r="62" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A62" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="62"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="57"/>
-      <c r="S62" s="57"/>
-      <c r="T62" s="57"/>
-      <c r="U62" s="57"/>
-      <c r="V62" s="57"/>
-      <c r="W62" s="57"/>
-      <c r="X62" s="57"/>
-      <c r="Y62" s="57"/>
-      <c r="Z62" s="57"/>
+      <c r="A62" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="64"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="59"/>
+      <c r="S62" s="59"/>
+      <c r="T62" s="59"/>
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
+      <c r="Z62" s="59"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A63" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="58"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="57"/>
-      <c r="Y63" s="57"/>
-      <c r="Z63" s="57"/>
+      <c r="A63" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="60"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="59"/>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A64" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="64"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="57"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="57"/>
-      <c r="Y64" s="57"/>
-      <c r="Z64" s="57"/>
+      <c r="A64" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="66"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="124"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59"/>
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A65" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="119"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="57"/>
-      <c r="U65" s="57"/>
-      <c r="V65" s="57"/>
-      <c r="W65" s="57"/>
-      <c r="X65" s="57"/>
-      <c r="Y65" s="57"/>
-      <c r="Z65" s="57"/>
+      <c r="A65" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="125"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="59"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A66" s="120" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="57"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="57"/>
-      <c r="T66" s="57"/>
-      <c r="U66" s="57"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="57"/>
-      <c r="X66" s="57"/>
-      <c r="Y66" s="57"/>
-      <c r="Z66" s="57"/>
+      <c r="A66" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="59"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="59"/>
+      <c r="S66" s="59"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="59"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="60">

--- a/raw/time_tables/BCA (bca)/2/1.xlsx
+++ b/raw/time_tables/BCA (bca)/2/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18432" windowHeight="17068"/>
+    <workbookView windowWidth="18393" windowHeight="16915"/>
   </bookViews>
   <sheets>
     <sheet name="2 Sem" sheetId="1" r:id="rId1"/>
@@ -65,8 +65,25 @@
     <t>LBCA1, BCA2(23B61CA122/23B61CS122)-CR501/PTK</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PBCA2(23B65CA126/23B65CS126)-CL21/SHP,ALK,SNG,RCN</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+PBCA2(23B65CA126/23B65CS126)-CL21/SHP,ALK,SNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, REK (ADD)</t>
+    </r>
   </si>
   <si>
     <t>LBCA3, BCA4(23B61CA121/23B61CS121)-CR301/RCN</t>
@@ -212,7 +229,33 @@
     <t>PBCA3(23B31HS112)-Computer Centre Room no 423 4th Floor ABB-III/PAC</t>
   </si>
   <si>
-    <t>PBCA4(23B65CA126/23B65CS126)-CL23/SMS,SNG,REK,SOI</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PBCA4(23B65CA126/23B65CS126)-CL23/SMS,SNG,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> RCN (ADD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,SOI</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Faculty Abbreviation </t>
@@ -587,9 +630,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -787,9 +830,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,6 +840,50 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,28 +897,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -840,8 +905,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,9 +929,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,13 +958,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -914,24 +973,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,6 +991,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1012,19 +1067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,7 +1103,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,13 +1127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,37 +1169,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,25 +1205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,37 +1235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,6 +1714,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1689,30 +1768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1739,157 +1794,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="40" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="39" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="126">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1914,17 +1969,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1933,60 +1991,60 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,7 +2063,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2015,9 +2073,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2030,29 +2085,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2064,26 +2119,23 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,7 +2150,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2117,7 +2169,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2126,24 +2178,24 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2157,11 +2209,11 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2173,7 +2225,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2182,14 +2234,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2460,11 +2512,11 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4260869565217" defaultRowHeight="15" customHeight="1"/>
@@ -2492,7 +2544,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="113"/>
+      <c r="I1" s="112"/>
       <c r="J1" s="59"/>
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
@@ -2522,7 +2574,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="114"/>
+      <c r="I2" s="113"/>
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
@@ -2567,23 +2619,23 @@
       <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A4" s="11" t="s">
@@ -2600,103 +2652,103 @@
       <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="49.9" spans="1:26">
       <c r="A5" s="14"/>
       <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="68"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="10.5" customHeight="1" spans="1:26">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="101"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="24.95" spans="1:26">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
@@ -2704,40 +2756,40 @@
         <v>12</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A8" s="14"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="68"/>
@@ -2748,219 +2800,219 @@
         <v>29</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="44.25" customHeight="1" spans="1:26">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="70"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A10" s="25"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="69"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="100"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="37.45" spans="1:26">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="24.95" spans="1:26">
       <c r="A12" s="14"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="68"/>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="100"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="37.45" spans="1:26">
-      <c r="A13" s="18"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="29"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="67"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="100"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="8.25" customHeight="1" spans="1:26">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="37.45" spans="1:26">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -2984,97 +3036,97 @@
       <c r="H15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="100"/>
+      <c r="Z15" s="100"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A16" s="14"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="68"/>
       <c r="F16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="29" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="100"/>
+      <c r="Z16" s="100"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:26">
-      <c r="A17" s="32"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="69"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="37.45" spans="1:26">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -3088,32 +3140,32 @@
         <v>52</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A19" s="14"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="29" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="68"/>
@@ -3123,30 +3175,30 @@
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:26">
-      <c r="A20" s="23"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="12"/>
       <c r="E20" s="68"/>
       <c r="F20" s="12"/>
@@ -3154,966 +3206,966 @@
         <v>56</v>
       </c>
       <c r="H20" s="74"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:26">
-      <c r="A21" s="36"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="12"/>
       <c r="E21" s="71"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="100"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="8.25" customHeight="1" spans="1:26">
-      <c r="A22" s="32"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="69"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="37.45" spans="1:26">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="37.45" spans="1:26">
       <c r="A24" s="14"/>
       <c r="B24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="32.25" customHeight="1" spans="1:26">
       <c r="A25" s="14"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:26">
       <c r="A26" s="14"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:26">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="81" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="82" t="s">
+      <c r="G28" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="122"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="84" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="85" t="s">
+      <c r="F29" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="123"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="24.95" spans="1:26">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="84" t="s">
+      <c r="D30" s="50"/>
+      <c r="E30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="85" t="s">
+      <c r="F30" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="87" t="s">
+      <c r="G30" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="123"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="84" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="F31" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="G31" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="83" t="s">
+      <c r="H31" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="123"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="84" t="s">
+      <c r="D32" s="50"/>
+      <c r="E32" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="88" t="s">
+      <c r="G32" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="122"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="84" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="85" t="s">
+      <c r="F33" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="88" t="s">
+      <c r="G33" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="83" t="s">
+      <c r="H33" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="122"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="84" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="83" t="s">
+      <c r="H34" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="I34" s="123"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="100"/>
+      <c r="V34" s="100"/>
+      <c r="W34" s="100"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="84" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="F35" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="89" t="s">
+      <c r="G35" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="122"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A36" s="50"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="84" t="s">
+      <c r="D36" s="50"/>
+      <c r="E36" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="85" t="s">
+      <c r="F36" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="90" t="s">
+      <c r="G36" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="91" t="s">
+      <c r="H36" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="I36" s="122"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="100"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="100"/>
+      <c r="V36" s="100"/>
+      <c r="W36" s="100"/>
+      <c r="X36" s="100"/>
+      <c r="Y36" s="100"/>
+      <c r="Z36" s="100"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="92" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="85" t="s">
+      <c r="F37" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="93" t="s">
+      <c r="G37" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="91" t="s">
+      <c r="H37" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
+      <c r="S37" s="100"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="100"/>
+      <c r="W37" s="100"/>
+      <c r="X37" s="100"/>
+      <c r="Y37" s="100"/>
+      <c r="Z37" s="100"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A38" s="51"/>
-      <c r="B38" s="47" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="51" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="85" t="s">
+      <c r="F38" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="101"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="100"/>
+      <c r="V38" s="100"/>
+      <c r="W38" s="100"/>
+      <c r="X38" s="100"/>
+      <c r="Y38" s="100"/>
+      <c r="Z38" s="100"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A39" s="51"/>
-      <c r="B39" s="47" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="51" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="85" t="s">
+      <c r="F39" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="101"/>
-      <c r="X39" s="101"/>
-      <c r="Y39" s="101"/>
-      <c r="Z39" s="101"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="100"/>
+      <c r="T39" s="100"/>
+      <c r="U39" s="100"/>
+      <c r="V39" s="100"/>
+      <c r="W39" s="100"/>
+      <c r="X39" s="100"/>
+      <c r="Y39" s="100"/>
+      <c r="Z39" s="100"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A40" s="51"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="94" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="85" t="s">
+      <c r="F40" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="95"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="100"/>
+      <c r="W40" s="100"/>
+      <c r="X40" s="100"/>
+      <c r="Y40" s="100"/>
+      <c r="Z40" s="100"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A41" s="51"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="101"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="100"/>
+      <c r="T41" s="100"/>
+      <c r="U41" s="100"/>
+      <c r="V41" s="100"/>
+      <c r="W41" s="100"/>
+      <c r="X41" s="100"/>
+      <c r="Y41" s="100"/>
+      <c r="Z41" s="100"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A42" s="51"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101"/>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="101"/>
-      <c r="U42" s="101"/>
-      <c r="V42" s="101"/>
-      <c r="W42" s="101"/>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="101"/>
-      <c r="Z42" s="101"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
+      <c r="V42" s="100"/>
+      <c r="W42" s="100"/>
+      <c r="X42" s="100"/>
+      <c r="Y42" s="100"/>
+      <c r="Z42" s="100"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A43" s="51"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="100"/>
+      <c r="U43" s="100"/>
+      <c r="V43" s="100"/>
+      <c r="W43" s="100"/>
+      <c r="X43" s="100"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="100"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A44" s="51"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A45" s="51"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="101"/>
-      <c r="U45" s="101"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="101"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="101"/>
-      <c r="Z45" s="101"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="100"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="100"/>
+      <c r="R45" s="100"/>
+      <c r="S45" s="100"/>
+      <c r="T45" s="100"/>
+      <c r="U45" s="100"/>
+      <c r="V45" s="100"/>
+      <c r="W45" s="100"/>
+      <c r="X45" s="100"/>
+      <c r="Y45" s="100"/>
+      <c r="Z45" s="100"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="12.5" spans="1:26">
-      <c r="A46" s="51"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="101"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
-      <c r="U46" s="101"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-      <c r="X46" s="101"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="100"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="100"/>
+      <c r="Y46" s="100"/>
+      <c r="Z46" s="100"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:26">
       <c r="A47" s="54"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
       <c r="D47" s="56"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="100" t="s">
+      <c r="E47" s="98"/>
+      <c r="F47" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="101"/>
-      <c r="M47" s="101"/>
-      <c r="N47" s="101"/>
-      <c r="O47" s="101"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="101"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
-      <c r="U47" s="101"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="101"/>
-      <c r="X47" s="101"/>
-      <c r="Y47" s="101"/>
-      <c r="Z47" s="101"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100"/>
+      <c r="O47" s="100"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="100"/>
+      <c r="T47" s="100"/>
+      <c r="U47" s="100"/>
+      <c r="V47" s="100"/>
+      <c r="W47" s="100"/>
+      <c r="X47" s="100"/>
+      <c r="Y47" s="100"/>
+      <c r="Z47" s="100"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:26">
       <c r="A48" s="57" t="s">
@@ -4122,13 +4174,13 @@
       <c r="B48" s="58"/>
       <c r="C48" s="59"/>
       <c r="D48" s="60"/>
-      <c r="F48" s="102" t="s">
+      <c r="F48" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="103" t="s">
+      <c r="G48" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="H48" s="104" t="s">
+      <c r="H48" s="103" t="s">
         <v>149</v>
       </c>
       <c r="I48" s="63" t="s">
@@ -4163,11 +4215,11 @@
         <v>153</v>
       </c>
       <c r="D49" s="60"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="106" t="s">
+      <c r="F49" s="104"/>
+      <c r="G49" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="H49" s="104" t="s">
+      <c r="H49" s="103" t="s">
         <v>149</v>
       </c>
       <c r="I49" s="63" t="s">
@@ -4202,11 +4254,11 @@
         <v>153</v>
       </c>
       <c r="D50" s="60"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="107" t="s">
+      <c r="F50" s="104"/>
+      <c r="G50" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="H50" s="104" t="s">
+      <c r="H50" s="103" t="s">
         <v>149</v>
       </c>
       <c r="I50" s="63" t="s">
@@ -4241,11 +4293,11 @@
         <v>153</v>
       </c>
       <c r="D51" s="60"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="109" t="s">
+      <c r="F51" s="107"/>
+      <c r="G51" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="H51" s="104" t="s">
+      <c r="H51" s="103" t="s">
         <v>149</v>
       </c>
       <c r="I51" s="63" t="s">
@@ -4280,13 +4332,13 @@
         <v>153</v>
       </c>
       <c r="D52" s="60"/>
-      <c r="F52" s="102" t="s">
+      <c r="F52" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="G52" s="103" t="s">
+      <c r="G52" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="H52" s="110" t="s">
+      <c r="H52" s="109" t="s">
         <v>152</v>
       </c>
       <c r="I52" s="63" t="s">
@@ -4321,11 +4373,11 @@
         <v>153</v>
       </c>
       <c r="D53" s="60"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="106" t="s">
+      <c r="F53" s="104"/>
+      <c r="G53" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="H53" s="110" t="s">
+      <c r="H53" s="109" t="s">
         <v>152</v>
       </c>
       <c r="I53" s="63" t="s">
@@ -4360,11 +4412,11 @@
         <v>153</v>
       </c>
       <c r="D54" s="60"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="107" t="s">
+      <c r="F54" s="104"/>
+      <c r="G54" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="H54" s="110" t="s">
+      <c r="H54" s="109" t="s">
         <v>152</v>
       </c>
       <c r="I54" s="63" t="s">
@@ -4399,11 +4451,11 @@
         <v>153</v>
       </c>
       <c r="D55" s="60"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="109" t="s">
+      <c r="F55" s="107"/>
+      <c r="G55" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="H55" s="110" t="s">
+      <c r="H55" s="109" t="s">
         <v>152</v>
       </c>
       <c r="I55" s="63" t="s">
@@ -4467,7 +4519,7 @@
         <v>153</v>
       </c>
       <c r="D57" s="60"/>
-      <c r="F57" s="111" t="s">
+      <c r="F57" s="110" t="s">
         <v>172</v>
       </c>
       <c r="H57" s="59"/>
@@ -4504,7 +4556,7 @@
       <c r="G58" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="H58" s="104" t="s">
+      <c r="H58" s="103" t="s">
         <v>149</v>
       </c>
       <c r="I58" s="63" t="s">
@@ -4542,7 +4594,7 @@
       <c r="G59" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="H59" s="104" t="s">
+      <c r="H59" s="103" t="s">
         <v>149</v>
       </c>
       <c r="I59" s="63" t="s">
@@ -4693,11 +4745,11 @@
         <v>153</v>
       </c>
       <c r="D64" s="66"/>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
       <c r="F64" s="59"/>
       <c r="G64" s="59"/>
       <c r="H64" s="59"/>
-      <c r="I64" s="124"/>
+      <c r="I64" s="123"/>
       <c r="J64" s="59"/>
       <c r="K64" s="59"/>
       <c r="L64" s="59"/>
@@ -4726,12 +4778,12 @@
       <c r="C65" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="125"/>
-      <c r="E65" s="112"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="111"/>
       <c r="F65" s="59"/>
       <c r="G65" s="59"/>
       <c r="H65" s="59"/>
-      <c r="I65" s="124"/>
+      <c r="I65" s="123"/>
       <c r="J65" s="59"/>
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
@@ -4751,7 +4803,7 @@
       <c r="Z65" s="59"/>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A66" s="126" t="s">
+      <c r="A66" s="125" t="s">
         <v>185</v>
       </c>
       <c r="B66" s="62" t="s">
@@ -4761,11 +4813,11 @@
         <v>186</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="112"/>
+      <c r="E66" s="111"/>
       <c r="F66" s="59"/>
       <c r="G66" s="59"/>
       <c r="H66" s="59"/>
-      <c r="I66" s="124"/>
+      <c r="I66" s="123"/>
       <c r="J66" s="59"/>
       <c r="K66" s="59"/>
       <c r="L66" s="59"/>

--- a/raw/time_tables/BCA (bca)/2/1.xlsx
+++ b/raw/time_tables/BCA (bca)/2/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18393" windowHeight="16915"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="2 Sem" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="189">
   <si>
     <t>Bachelors of Computer Applications</t>
   </si>
@@ -65,25 +65,8 @@
     <t>LBCA1, BCA2(23B61CA122/23B61CS122)-CR501/PTK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-PBCA2(23B65CA126/23B65CS126)-CL21/SHP,ALK,SNG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, REK (ADD)</t>
-    </r>
+    <t xml:space="preserve">
+PBCA2(23B65CA126/23B65CS126)-CL21/SHP,ALK,SNG, REK</t>
   </si>
   <si>
     <t>LBCA3, BCA4(23B61CA121/23B61CS121)-CR301/RCN</t>
@@ -195,7 +178,7 @@
     <t>BCA (TALK)</t>
   </si>
   <si>
-    <t>PBCA1(23B65CA126/23B65CS126)-CL24/RCA,DEP,RJM,SOI</t>
+    <t>PBCA1(23B65CA126/23B65CS126)-CL24/RCA,DEP,RJM,RIT</t>
   </si>
   <si>
     <t>LBCA3, BCA4(23B36HS111)-CS6/BB</t>
@@ -229,33 +212,7 @@
     <t>PBCA3(23B31HS112)-Computer Centre Room no 423 4th Floor ABB-III/PAC</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PBCA4(23B65CA126/23B65CS126)-CL23/SMS,SNG,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> RCN (ADD)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,SOI</t>
-    </r>
+    <t>PBCA4(23B65CA126/23B65CS126)-CL23/SMS,SNG, RCN,SOI</t>
   </si>
   <si>
     <t xml:space="preserve">Faculty Abbreviation </t>
@@ -466,6 +423,12 @@
   </si>
   <si>
     <t>Dr. Paridhi Choudhary</t>
+  </si>
+  <si>
+    <t>RIT</t>
+  </si>
+  <si>
+    <t>RITI</t>
   </si>
   <si>
     <t>DEP</t>
@@ -631,10 +594,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +761,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -845,8 +814,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,122 +942,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,18 +964,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
       </patternFill>
@@ -1021,6 +978,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1049,31 +1018,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1084,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,25 +1120,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,121 +1186,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,6 +1645,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1705,15 +1665,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1735,20 +1686,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1767,179 +1742,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="40" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1969,16 +1920,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1991,7 +1942,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1999,10 +1950,10 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,13 +1968,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2035,16 +1986,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2106,8 +2055,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2119,23 +2074,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2147,7 +2098,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2169,54 +2120,60 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2225,7 +2182,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2234,7 +2191,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2512,28 +2469,28 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9:G9"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4260869565217" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.425" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28695652173913" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.1391304347826" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.4260869565217" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.7130434782609" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.5739130434783" style="3" customWidth="1"/>
-    <col min="6" max="7" width="29.5739130434783" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.1391304347826" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.1391304347826" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.28333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.1416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.425" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.7083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.5666666666667" style="3" customWidth="1"/>
+    <col min="6" max="7" width="29.5666666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.1416666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1416666666667" style="4" customWidth="1"/>
     <col min="10" max="26" width="8" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="14.4260869565217" style="4"/>
+    <col min="27" max="16384" width="14.425" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.05" spans="1:26">
+    <row r="1" ht="15.75" spans="1:26">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2501,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="112"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="59"/>
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
@@ -2574,7 +2531,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="113"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
@@ -2619,25 +2576,25 @@
       <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="38.25" spans="1:26">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -2652,30 +2609,30 @@
       <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="49.9" spans="1:26">
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="51" spans="1:26">
       <c r="A5" s="14"/>
       <c r="B5" s="12" t="s">
         <v>15</v>
@@ -2684,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="68"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="13"/>
       <c r="G5" s="20" t="s">
         <v>17</v>
@@ -2695,53 +2652,53 @@
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="10.5" customHeight="1" spans="1:26">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="69"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="24.95" spans="1:26">
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="25.5" spans="1:26">
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
@@ -2759,29 +2716,29 @@
       <c r="G7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="I7" s="69"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="38.25" spans="1:26">
       <c r="A8" s="14"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -2792,7 +2749,7 @@
       <c r="D8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="31" t="s">
         <v>28</v>
       </c>
@@ -2800,24 +2757,24 @@
         <v>29</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="44.25" customHeight="1" spans="1:26">
       <c r="A9" s="24"/>
@@ -2826,60 +2783,60 @@
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="68"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="29" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="70"/>
+      <c r="H9" s="72"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:26">
       <c r="A10" s="27"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="69"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="38.25" spans="1:26">
       <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
@@ -2903,57 +2860,57 @@
         <v>36</v>
       </c>
       <c r="I11" s="25"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="24.95" spans="1:26">
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="25.5" spans="1:26">
       <c r="A12" s="14"/>
       <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="31"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="30"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="38.25" spans="1:26">
       <c r="A13" s="19"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
@@ -2965,53 +2922,53 @@
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="8.25" customHeight="1" spans="1:26">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="69"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="38.25" spans="1:26">
       <c r="A15" s="32" t="s">
         <v>40</v>
       </c>
@@ -3037,25 +2994,25 @@
         <v>45</v>
       </c>
       <c r="I15" s="30"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="25.5" spans="1:26">
       <c r="A16" s="14"/>
       <c r="B16" s="29" t="s">
         <v>46</v>
@@ -3064,7 +3021,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="68"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="12" t="s">
         <v>48</v>
       </c>
@@ -3072,54 +3029,54 @@
         <v>49</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="100"/>
-      <c r="Z16" s="100"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:26">
       <c r="A17" s="33"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="69"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="38.25" spans="1:26">
       <c r="A18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3132,7 +3089,7 @@
       <c r="D18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="73" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="12"/>
@@ -3140,26 +3097,26 @@
         <v>52</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="100"/>
-      <c r="Z18" s="100"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="I18" s="118"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="38.25" spans="1:26">
       <c r="A19" s="14"/>
       <c r="B19" s="34" t="s">
         <v>53</v>
@@ -3168,8 +3125,8 @@
       <c r="D19" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="72" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="74" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -3177,113 +3134,113 @@
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:26">
       <c r="A20" s="24"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="68"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="74"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:26">
       <c r="A21" s="37"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="71"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="12"/>
       <c r="G21" s="29" t="s">
         <v>57</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="8.25" customHeight="1" spans="1:26">
       <c r="A22" s="33"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="69"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="I22" s="119"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="38.25" spans="1:26">
       <c r="A23" s="19" t="s">
         <v>58</v>
       </c>
@@ -3298,26 +3255,26 @@
       <c r="F23" s="30"/>
       <c r="G23" s="36"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="37.45" spans="1:26">
+      <c r="I23" s="120"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="38.25" spans="1:26">
       <c r="A24" s="14"/>
       <c r="B24" s="12" t="s">
         <v>61</v>
@@ -3330,24 +3287,24 @@
       <c r="F24" s="30"/>
       <c r="G24" s="36"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="32.25" customHeight="1" spans="1:26">
       <c r="A25" s="14"/>
@@ -3360,54 +3317,54 @@
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="100"/>
-      <c r="X25" s="100"/>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:26">
       <c r="A26" s="14"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="76"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:26">
       <c r="A27" s="40"/>
@@ -3418,24 +3375,24 @@
       <c r="F27" s="78"/>
       <c r="G27" s="42"/>
       <c r="H27" s="79"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:26">
       <c r="A28" s="43"/>
@@ -3458,26 +3415,26 @@
       <c r="H28" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="121"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="I28" s="123"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A29" s="47"/>
       <c r="B29" s="48" t="s">
         <v>69</v>
@@ -3498,26 +3455,26 @@
       <c r="H29" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="122"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="100"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="24.95" spans="1:26">
+      <c r="I29" s="124"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="25.5" spans="1:26">
       <c r="A30" s="47"/>
       <c r="B30" s="48" t="s">
         <v>75</v>
@@ -3538,26 +3495,26 @@
       <c r="H30" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="122"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="100"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="I30" s="124"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A31" s="47"/>
       <c r="B31" s="48" t="s">
         <v>81</v>
@@ -3578,26 +3535,26 @@
       <c r="H31" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="122"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="I31" s="124"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A32" s="47"/>
       <c r="B32" s="48" t="s">
         <v>87</v>
@@ -3618,26 +3575,26 @@
       <c r="H32" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="121"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="I32" s="123"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A33" s="47"/>
       <c r="B33" s="48" t="s">
         <v>81</v>
@@ -3658,26 +3615,26 @@
       <c r="H33" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="121"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
-      <c r="X33" s="100"/>
-      <c r="Y33" s="100"/>
-      <c r="Z33" s="100"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="I33" s="123"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A34" s="47"/>
       <c r="B34" s="48" t="s">
         <v>97</v>
@@ -3698,26 +3655,26 @@
       <c r="H34" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="I34" s="122"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="100"/>
-      <c r="V34" s="100"/>
-      <c r="W34" s="100"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="100"/>
-      <c r="Z34" s="100"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="I34" s="124"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="102"/>
+      <c r="V34" s="102"/>
+      <c r="W34" s="102"/>
+      <c r="X34" s="102"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="102"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A35" s="47"/>
       <c r="B35" s="48" t="s">
         <v>103</v>
@@ -3738,26 +3695,26 @@
       <c r="H35" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="121"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="100"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="100"/>
-      <c r="X35" s="100"/>
-      <c r="Y35" s="100"/>
-      <c r="Z35" s="100"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="I35" s="123"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="102"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102"/>
+      <c r="W35" s="102"/>
+      <c r="X35" s="102"/>
+      <c r="Y35" s="102"/>
+      <c r="Z35" s="102"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A36" s="51"/>
       <c r="B36" s="48" t="s">
         <v>109</v>
@@ -3778,26 +3735,26 @@
       <c r="H36" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="I36" s="121"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="100"/>
-      <c r="V36" s="100"/>
-      <c r="W36" s="100"/>
-      <c r="X36" s="100"/>
-      <c r="Y36" s="100"/>
-      <c r="Z36" s="100"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="I36" s="123"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="102"/>
+      <c r="U36" s="102"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="102"/>
+      <c r="X36" s="102"/>
+      <c r="Y36" s="102"/>
+      <c r="Z36" s="102"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A37" s="52"/>
       <c r="B37" s="53" t="s">
         <v>115</v>
@@ -3819,25 +3776,25 @@
         <v>120</v>
       </c>
       <c r="I37" s="50"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="100"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="100"/>
-      <c r="X37" s="100"/>
-      <c r="Y37" s="100"/>
-      <c r="Z37" s="100"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
+      <c r="S37" s="102"/>
+      <c r="T37" s="102"/>
+      <c r="U37" s="102"/>
+      <c r="V37" s="102"/>
+      <c r="W37" s="102"/>
+      <c r="X37" s="102"/>
+      <c r="Y37" s="102"/>
+      <c r="Z37" s="102"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A38" s="52"/>
       <c r="B38" s="48" t="s">
         <v>121</v>
@@ -3846,7 +3803,7 @@
         <v>122</v>
       </c>
       <c r="D38" s="50"/>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="91" t="s">
         <v>123</v>
       </c>
       <c r="F38" s="84" t="s">
@@ -3855,25 +3812,25 @@
       <c r="G38" s="48"/>
       <c r="H38" s="87"/>
       <c r="I38" s="50"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="100"/>
-      <c r="V38" s="100"/>
-      <c r="W38" s="100"/>
-      <c r="X38" s="100"/>
-      <c r="Y38" s="100"/>
-      <c r="Z38" s="100"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="102"/>
+      <c r="U38" s="102"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="102"/>
+      <c r="X38" s="102"/>
+      <c r="Y38" s="102"/>
+      <c r="Z38" s="102"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A39" s="52"/>
       <c r="B39" s="48" t="s">
         <v>125</v>
@@ -3882,7 +3839,7 @@
         <v>126</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="91" t="s">
         <v>127</v>
       </c>
       <c r="F39" s="84" t="s">
@@ -3891,25 +3848,25 @@
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
       <c r="I39" s="48"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="100"/>
-      <c r="U39" s="100"/>
-      <c r="V39" s="100"/>
-      <c r="W39" s="100"/>
-      <c r="X39" s="100"/>
-      <c r="Y39" s="100"/>
-      <c r="Z39" s="100"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="102"/>
+      <c r="U39" s="102"/>
+      <c r="V39" s="102"/>
+      <c r="W39" s="102"/>
+      <c r="X39" s="102"/>
+      <c r="Y39" s="102"/>
+      <c r="Z39" s="102"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A40" s="52"/>
       <c r="B40" s="53" t="s">
         <v>129</v>
@@ -3927,25 +3884,25 @@
       <c r="G40" s="94"/>
       <c r="H40" s="95"/>
       <c r="I40" s="95"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
-      <c r="V40" s="100"/>
-      <c r="W40" s="100"/>
-      <c r="X40" s="100"/>
-      <c r="Y40" s="100"/>
-      <c r="Z40" s="100"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="102"/>
+      <c r="T40" s="102"/>
+      <c r="U40" s="102"/>
+      <c r="V40" s="102"/>
+      <c r="W40" s="102"/>
+      <c r="X40" s="102"/>
+      <c r="Y40" s="102"/>
+      <c r="Z40" s="102"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="14.25" spans="1:26">
       <c r="A41" s="52"/>
       <c r="B41" s="53" t="s">
         <v>133</v>
@@ -3954,237 +3911,241 @@
         <v>134</v>
       </c>
       <c r="D41" s="50"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="94"/>
+      <c r="E41" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="97" t="s">
+        <v>136</v>
+      </c>
       <c r="G41" s="94"/>
       <c r="H41" s="95"/>
       <c r="I41" s="95"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="100"/>
-      <c r="U41" s="100"/>
-      <c r="V41" s="100"/>
-      <c r="W41" s="100"/>
-      <c r="X41" s="100"/>
-      <c r="Y41" s="100"/>
-      <c r="Z41" s="100"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="102"/>
+      <c r="O41" s="102"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="102"/>
+      <c r="S41" s="102"/>
+      <c r="T41" s="102"/>
+      <c r="U41" s="102"/>
+      <c r="V41" s="102"/>
+      <c r="W41" s="102"/>
+      <c r="X41" s="102"/>
+      <c r="Y41" s="102"/>
+      <c r="Z41" s="102"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A42" s="52"/>
       <c r="B42" s="53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D42" s="50"/>
-      <c r="E42" s="96"/>
+      <c r="E42" s="98"/>
       <c r="F42" s="94"/>
       <c r="G42" s="94"/>
       <c r="H42" s="95"/>
       <c r="I42" s="95"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
-      <c r="O42" s="100"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="100"/>
-      <c r="U42" s="100"/>
-      <c r="V42" s="100"/>
-      <c r="W42" s="100"/>
-      <c r="X42" s="100"/>
-      <c r="Y42" s="100"/>
-      <c r="Z42" s="100"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="102"/>
+      <c r="T42" s="102"/>
+      <c r="U42" s="102"/>
+      <c r="V42" s="102"/>
+      <c r="W42" s="102"/>
+      <c r="X42" s="102"/>
+      <c r="Y42" s="102"/>
+      <c r="Z42" s="102"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A43" s="52"/>
       <c r="B43" s="53" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D43" s="50"/>
-      <c r="E43" s="96"/>
+      <c r="E43" s="98"/>
       <c r="F43" s="94"/>
       <c r="G43" s="94"/>
       <c r="H43" s="95"/>
       <c r="I43" s="95"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
-      <c r="O43" s="100"/>
-      <c r="P43" s="100"/>
-      <c r="Q43" s="100"/>
-      <c r="R43" s="100"/>
-      <c r="S43" s="100"/>
-      <c r="T43" s="100"/>
-      <c r="U43" s="100"/>
-      <c r="V43" s="100"/>
-      <c r="W43" s="100"/>
-      <c r="X43" s="100"/>
-      <c r="Y43" s="100"/>
-      <c r="Z43" s="100"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
+      <c r="O43" s="102"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="102"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="102"/>
+      <c r="U43" s="102"/>
+      <c r="V43" s="102"/>
+      <c r="W43" s="102"/>
+      <c r="X43" s="102"/>
+      <c r="Y43" s="102"/>
+      <c r="Z43" s="102"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A44" s="52"/>
       <c r="B44" s="53" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="96"/>
+      <c r="E44" s="98"/>
       <c r="F44" s="94"/>
       <c r="G44" s="94"/>
       <c r="H44" s="95"/>
       <c r="I44" s="95"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="100"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="102"/>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="102"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="102"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A45" s="52"/>
       <c r="B45" s="53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="50"/>
-      <c r="E45" s="96"/>
+      <c r="E45" s="98"/>
       <c r="F45" s="94"/>
       <c r="G45" s="94"/>
       <c r="H45" s="95"/>
       <c r="I45" s="95"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="100"/>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="100"/>
-      <c r="R45" s="100"/>
-      <c r="S45" s="100"/>
-      <c r="T45" s="100"/>
-      <c r="U45" s="100"/>
-      <c r="V45" s="100"/>
-      <c r="W45" s="100"/>
-      <c r="X45" s="100"/>
-      <c r="Y45" s="100"/>
-      <c r="Z45" s="100"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="12.5" spans="1:26">
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="102"/>
+      <c r="U45" s="102"/>
+      <c r="V45" s="102"/>
+      <c r="W45" s="102"/>
+      <c r="X45" s="102"/>
+      <c r="Y45" s="102"/>
+      <c r="Z45" s="102"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="12.75" spans="1:26">
       <c r="A46" s="52"/>
       <c r="B46" s="53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="96"/>
+      <c r="E46" s="98"/>
       <c r="F46" s="94"/>
       <c r="G46" s="94"/>
-      <c r="H46" s="97"/>
+      <c r="H46" s="99"/>
       <c r="I46" s="50"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="100"/>
-      <c r="Z46" s="100"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="102"/>
+      <c r="U46" s="102"/>
+      <c r="V46" s="102"/>
+      <c r="W46" s="102"/>
+      <c r="X46" s="102"/>
+      <c r="Y46" s="102"/>
+      <c r="Z46" s="102"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:26">
       <c r="A47" s="54"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
       <c r="D47" s="56"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="100"/>
-      <c r="O47" s="100"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="100"/>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
-      <c r="W47" s="100"/>
-      <c r="X47" s="100"/>
-      <c r="Y47" s="100"/>
-      <c r="Z47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
+      <c r="O47" s="102"/>
+      <c r="P47" s="102"/>
+      <c r="Q47" s="102"/>
+      <c r="R47" s="102"/>
+      <c r="S47" s="102"/>
+      <c r="T47" s="102"/>
+      <c r="U47" s="102"/>
+      <c r="V47" s="102"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="102"/>
+      <c r="Y47" s="102"/>
+      <c r="Z47" s="102"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:26">
       <c r="A48" s="57" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B48" s="58"/>
       <c r="C48" s="59"/>
       <c r="D48" s="60"/>
-      <c r="F48" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="H48" s="103" t="s">
+      <c r="F48" s="103" t="s">
         <v>149</v>
       </c>
+      <c r="G48" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="105" t="s">
+        <v>151</v>
+      </c>
       <c r="I48" s="63" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J48" s="59"/>
       <c r="K48" s="59"/>
@@ -4206,24 +4167,24 @@
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="1:26">
       <c r="A49" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="60"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="I49" s="63" t="s">
         <v>152</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="60"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" s="63" t="s">
-        <v>150</v>
       </c>
       <c r="J49" s="59"/>
       <c r="K49" s="59"/>
@@ -4245,24 +4206,24 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:26">
       <c r="A50" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="D50" s="60"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="63" t="s">
         <v>152</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="60"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="106" t="s">
-        <v>156</v>
-      </c>
-      <c r="H50" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="I50" s="63" t="s">
-        <v>150</v>
       </c>
       <c r="J50" s="59"/>
       <c r="K50" s="59"/>
@@ -4284,24 +4245,24 @@
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:26">
       <c r="A51" s="61" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B51" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" s="63" t="s">
         <v>152</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="60"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="108" t="s">
-        <v>158</v>
-      </c>
-      <c r="H51" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="I51" s="63" t="s">
-        <v>150</v>
       </c>
       <c r="J51" s="59"/>
       <c r="K51" s="59"/>
@@ -4323,26 +4284,26 @@
     </row>
     <row r="52" ht="15.75" customHeight="1" spans="1:26">
       <c r="A52" s="61" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="60"/>
-      <c r="F52" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="H52" s="109" t="s">
-        <v>152</v>
+      <c r="F52" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="111" t="s">
+        <v>154</v>
       </c>
       <c r="I52" s="63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J52" s="59"/>
       <c r="K52" s="59"/>
@@ -4364,24 +4325,24 @@
     </row>
     <row r="53" ht="15.75" customHeight="1" spans="1:26">
       <c r="A53" s="61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B53" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="H53" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="I53" s="63" t="s">
         <v>164</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="D53" s="60"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="H53" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="I53" s="63" t="s">
-        <v>162</v>
       </c>
       <c r="J53" s="59"/>
       <c r="K53" s="59"/>
@@ -4403,24 +4364,24 @@
     </row>
     <row r="54" ht="15.75" customHeight="1" spans="1:26">
       <c r="A54" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="C54" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="60"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" s="63" t="s">
         <v>164</v>
-      </c>
-      <c r="C54" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="60"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="H54" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="I54" s="63" t="s">
-        <v>162</v>
       </c>
       <c r="J54" s="59"/>
       <c r="K54" s="59"/>
@@ -4442,24 +4403,24 @@
     </row>
     <row r="55" ht="15.75" customHeight="1" spans="1:26">
       <c r="A55" s="61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B55" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="H55" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="I55" s="63" t="s">
         <v>164</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="60"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="I55" s="63" t="s">
-        <v>162</v>
       </c>
       <c r="J55" s="59"/>
       <c r="K55" s="59"/>
@@ -4481,13 +4442,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1" spans="1:26">
       <c r="A56" s="61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D56" s="60"/>
       <c r="J56" s="59"/>
@@ -4510,17 +4471,17 @@
     </row>
     <row r="57" ht="15.75" customHeight="1" spans="1:26">
       <c r="A57" s="61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D57" s="60"/>
-      <c r="F57" s="110" t="s">
-        <v>172</v>
+      <c r="F57" s="112" t="s">
+        <v>174</v>
       </c>
       <c r="H57" s="59"/>
       <c r="I57" s="59"/>
@@ -4544,23 +4505,23 @@
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:26">
       <c r="A58" s="61" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C58" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D58" s="60"/>
       <c r="G58" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="H58" s="103" t="s">
-        <v>149</v>
+        <v>176</v>
+      </c>
+      <c r="H58" s="105" t="s">
+        <v>151</v>
       </c>
       <c r="I58" s="63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J58" s="59"/>
       <c r="K58" s="59"/>
@@ -4582,23 +4543,23 @@
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="1:26">
       <c r="A59" s="61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D59" s="60"/>
       <c r="G59" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="63" t="s">
         <v>177</v>
-      </c>
-      <c r="H59" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="I59" s="63" t="s">
-        <v>175</v>
       </c>
       <c r="J59" s="59"/>
       <c r="K59" s="59"/>
@@ -4620,13 +4581,13 @@
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:26">
       <c r="A60" s="61" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D60" s="60"/>
       <c r="J60" s="59"/>
@@ -4649,13 +4610,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:26">
       <c r="A61" s="61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D61" s="60"/>
       <c r="J61" s="59"/>
@@ -4678,13 +4639,13 @@
     </row>
     <row r="62" ht="15.75" customHeight="1" spans="1:26">
       <c r="A62" s="61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D62" s="64"/>
       <c r="J62" s="59"/>
@@ -4707,13 +4668,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1" spans="1:26">
       <c r="A63" s="61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D63" s="60"/>
       <c r="J63" s="59"/>
@@ -4736,20 +4697,20 @@
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:26">
       <c r="A64" s="61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C64" s="65" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D64" s="66"/>
-      <c r="E64" s="111"/>
+      <c r="E64" s="113"/>
       <c r="F64" s="59"/>
       <c r="G64" s="59"/>
       <c r="H64" s="59"/>
-      <c r="I64" s="123"/>
+      <c r="I64" s="125"/>
       <c r="J64" s="59"/>
       <c r="K64" s="59"/>
       <c r="L64" s="59"/>
@@ -4770,20 +4731,20 @@
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="1:26">
       <c r="A65" s="61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C65" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="124"/>
-      <c r="E65" s="111"/>
+        <v>186</v>
+      </c>
+      <c r="D65" s="126"/>
+      <c r="E65" s="113"/>
       <c r="F65" s="59"/>
       <c r="G65" s="59"/>
       <c r="H65" s="59"/>
-      <c r="I65" s="123"/>
+      <c r="I65" s="125"/>
       <c r="J65" s="59"/>
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
@@ -4803,21 +4764,21 @@
       <c r="Z65" s="59"/>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A66" s="125" t="s">
-        <v>185</v>
+      <c r="A66" s="127" t="s">
+        <v>187</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="111"/>
+      <c r="E66" s="113"/>
       <c r="F66" s="59"/>
       <c r="G66" s="59"/>
       <c r="H66" s="59"/>
-      <c r="I66" s="123"/>
+      <c r="I66" s="125"/>
       <c r="J66" s="59"/>
       <c r="K66" s="59"/>
       <c r="L66" s="59"/>
